--- a/05_Entregable 3/previo/Diccionarios/MD_04_MAATE_Informe CITES 2024.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_04_MAATE_Informe CITES 2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="169">
   <si>
     <t>Elemento</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>Nombre de la variable</t>
   </si>
   <si>
     <t>Definición</t>
@@ -451,6 +448,99 @@
   </si>
   <si>
     <t>Número de individuos</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t>cod_permiso_exportacion</t>
+  </si>
+  <si>
+    <t>apendice</t>
+  </si>
+  <si>
+    <t>origen</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>especie</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>cod_comercio</t>
+  </si>
+  <si>
+    <t>descripcion_especimen</t>
+  </si>
+  <si>
+    <t>pais_destino</t>
+  </si>
+  <si>
+    <t>pais_origen_reexportacion</t>
+  </si>
+  <si>
+    <t>cod_permiso_importacion</t>
+  </si>
+  <si>
+    <t>proposito</t>
+  </si>
+  <si>
+    <t>anio</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>nombre_responsable</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>pais_exportacion</t>
+  </si>
+  <si>
+    <t>cod_permiso_reexportacion</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>cod_certificado_cmcdp</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>saldo</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>embarcacion</t>
+  </si>
+  <si>
+    <t>cmcdp</t>
   </si>
 </sst>
 </file>
@@ -915,58 +1005,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -979,15 +1069,15 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -996,199 +1086,199 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="12" t="s">
@@ -1198,139 +1288,139 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>6</v>
@@ -1341,19 +1431,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>6</v>
@@ -1364,19 +1454,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>6</v>
@@ -1396,7 +1486,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,58 +1496,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1467,18 +1557,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1487,183 +1577,183 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>6</v>
@@ -1672,209 +1762,209 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>6</v>
@@ -1885,44 +1975,26 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="12"/>
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1945,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,58 +2028,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2017,274 +2089,308 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1440801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1440801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="12">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12">
-        <v>74800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>117</v>
       </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
